--- a/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_October_2021.xlsx
+++ b/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_October_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schwall_Camunda_GITHUB\JavaTraining-Batch1\Naveenraj\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B56B7-EE69-4BA2-B524-29CDA17254A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C0956-E16B-4534-AA6F-F61228368234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F4A593B-00B2-45E2-8E55-ADE9F52422D0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t>HTTP request methods implementation</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>send,service task</t>
+  </si>
+  <si>
+    <t>create flow using send and service task</t>
+  </si>
+  <si>
+    <t>Java Threads</t>
+  </si>
+  <si>
+    <t>Java Threads Implementation</t>
+  </si>
+  <si>
+    <t>camunda gateways</t>
+  </si>
+  <si>
+    <t>create flow using inclusive exclusive parallel gateways</t>
+  </si>
+  <si>
+    <t>java inheritance implementation</t>
+  </si>
+  <si>
+    <t>java inheritance and types</t>
   </si>
 </sst>
 </file>
@@ -212,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -310,11 +337,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -332,6 +392,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CDA689-75B6-49C3-AB7C-45581979296E}">
-  <dimension ref="B1:F40"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,37 +1262,147 @@
       <c r="C36" s="5">
         <v>44487</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <v>34</v>
+      </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
+      <c r="B38" s="4">
+        <v>35</v>
+      </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="B39" s="4">
+        <v>36</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44488</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
+      <c r="B40" s="4">
+        <v>37</v>
+      </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="14">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11">
+        <v>44489</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="14">
+        <v>39</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="14">
+        <v>40</v>
+      </c>
+      <c r="C43" s="11">
+        <v>44490</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="14">
+        <v>41</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="14">
+        <v>42</v>
+      </c>
+      <c r="C45" s="11">
+        <v>44491</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1240,15 +1414,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B10BC6153E2B864AAA93563F755C4705" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477afd281f6a22ebef91f2ca4f286b10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24439d74-cc08-4782-ae89-a35f5d8e50e5" xmlns:ns4="dfaac93d-da25-4f18-947b-38491e2a5bc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f93032523bd78a9e6e5aba53c6bdc56" ns3:_="" ns4:_="">
     <xsd:import namespace="24439d74-cc08-4782-ae89-a35f5d8e50e5"/>
@@ -1445,6 +1610,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1452,14 +1626,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D24362B-611D-448D-AD50-F55228FDA503}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B130E8-3493-4F2C-B2D6-7C534BAF6D33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1474,6 +1640,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D24362B-611D-448D-AD50-F55228FDA503}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_October_2021.xlsx
+++ b/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_October_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schwall_Camunda_GITHUB\JavaTraining-Batch1\Naveenraj\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42C0956-E16B-4534-AA6F-F61228368234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22385FAA-C0D0-4B8F-9E69-14AB2586610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F4A593B-00B2-45E2-8E55-ADE9F52422D0}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -188,6 +188,42 @@
   </si>
   <si>
     <t>java inheritance and types</t>
+  </si>
+  <si>
+    <t>java spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+  </si>
+  <si>
+    <t>create java spring application</t>
+  </si>
+  <si>
+    <t>camunda connector</t>
+  </si>
+  <si>
+    <t>camunda connector implementation</t>
+  </si>
+  <si>
+    <t>java spring database configuration</t>
+  </si>
+  <si>
+    <t>java spring database configuration implementation(postgres)</t>
+  </si>
+  <si>
+    <t>java spring crud operation</t>
+  </si>
+  <si>
+    <t>camunda database configuration</t>
+  </si>
+  <si>
+    <t>camunda database configuration implementation</t>
+  </si>
+  <si>
+    <t>camunda communicate with spring application(http-connector)</t>
+  </si>
+  <si>
+    <t>camunda communicate with spring application(http-connector) implementation</t>
   </si>
 </sst>
 </file>
@@ -383,6 +419,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,10 +432,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CDA689-75B6-49C3-AB7C-45581979296E}">
-  <dimension ref="B1:F45"/>
+  <dimension ref="B1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,13 +762,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1335,73 +1371,251 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14">
+      <c r="B41" s="11">
         <v>38</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>44489</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>39</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="14">
+      <c r="B43" s="11">
         <v>40</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>44490</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="14">
+      <c r="B44" s="11">
         <v>41</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="13">
-        <v>2</v>
+      <c r="F44" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="14">
+      <c r="B45" s="11">
         <v>42</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>44491</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="11">
+        <v>43</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="11">
+        <v>44</v>
+      </c>
+      <c r="C47" s="8">
+        <v>44494</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="11">
+        <v>45</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="11">
+        <v>46</v>
+      </c>
+      <c r="C49" s="8">
+        <v>44495</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="11">
+        <v>47</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="11">
+        <v>48</v>
+      </c>
+      <c r="C51" s="8">
+        <v>44496</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="11">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="11">
+        <v>50</v>
+      </c>
+      <c r="C53" s="8">
+        <v>44497</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="11">
+        <v>51</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="11">
+        <v>52</v>
+      </c>
+      <c r="C55" s="8">
+        <v>44498</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="11">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1414,6 +1628,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B10BC6153E2B864AAA93563F755C4705" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="477afd281f6a22ebef91f2ca4f286b10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="24439d74-cc08-4782-ae89-a35f5d8e50e5" xmlns:ns4="dfaac93d-da25-4f18-947b-38491e2a5bc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f93032523bd78a9e6e5aba53c6bdc56" ns3:_="" ns4:_="">
     <xsd:import namespace="24439d74-cc08-4782-ae89-a35f5d8e50e5"/>
@@ -1610,15 +1833,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1626,6 +1840,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D24362B-611D-448D-AD50-F55228FDA503}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96B130E8-3493-4F2C-B2D6-7C534BAF6D33}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1640,14 +1862,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D24362B-611D-448D-AD50-F55228FDA503}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_October_2021.xlsx
+++ b/Naveenraj/TimeSheet/Schwall_Naveenraj_Timesheet_October_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schwall_Camunda_GITHUB\JavaTraining-Batch1\Naveenraj\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22385FAA-C0D0-4B8F-9E69-14AB2586610F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A1133-C409-4880-8D89-908787BC68F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F4A593B-00B2-45E2-8E55-ADE9F52422D0}"/>
   </bookViews>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CDA689-75B6-49C3-AB7C-45581979296E}">
   <dimension ref="B1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -1628,12 +1628,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1834,15 +1831,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D24362B-611D-448D-AD50-F55228FDA503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2638274A-42F9-41E6-A77F-A01D1CE4BB7E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dfaac93d-da25-4f18-947b-38491e2a5bc2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24439d74-cc08-4782-ae89-a35f5d8e50e5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1867,18 +1876,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2638274A-42F9-41E6-A77F-A01D1CE4BB7E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D24362B-611D-448D-AD50-F55228FDA503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dfaac93d-da25-4f18-947b-38491e2a5bc2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24439d74-cc08-4782-ae89-a35f5d8e50e5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>